--- a/PageBuilder/LangInputs/index.xlsx
+++ b/PageBuilder/LangInputs/index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knihovny\Plocha\LangInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knihovny\Dokumenty\GitHub\smart-phrase-scripts\PageBuilder\LangInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="20490" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="378">
   <si>
     <t>cs</t>
   </si>
@@ -323,12 +323,6 @@
     <t>minuti di registrazioni</t>
   </si>
   <si>
-    <t>Applicazione proprietà</t>
-  </si>
-  <si>
-    <t>Profilo dell’applicazione</t>
-  </si>
-  <si>
     <t>Az útiszótár alkalmazásról</t>
   </si>
   <si>
@@ -344,12 +338,6 @@
     <t>percnyi hangfelvételt</t>
   </si>
   <si>
-    <t>Az alkalmazás tulajdonságai</t>
-  </si>
-  <si>
-    <t>Alkalmazás kinézete</t>
-  </si>
-  <si>
     <t>Putujete na odmor ili na službeno putovanje u inozemstvo, ali ne govorite mjesnim jezikom? U stranoj zemlji se krećete po nepoznatoj sredini, morate i kupovati, hraniti se u restoranu, negdje stanovati, iznajmiti auto ili se navečer negdje zabavljati. Upravo zato je Priručnik za konverzaciju neophodni pomoćnik na putovanju, u svim zemljama, čiji jezik ne znate.</t>
   </si>
   <si>
@@ -392,21 +380,12 @@
     <t>minuut van opnamen</t>
   </si>
   <si>
-    <t>Eigendommen van de applicatie</t>
-  </si>
-  <si>
     <t>Inzage applicatie</t>
   </si>
   <si>
     <t>Reiseordbok</t>
   </si>
   <si>
-    <t>Egenskaper av applikasjonen</t>
-  </si>
-  <si>
-    <t>Prøveforestilling av applikasjonen</t>
-  </si>
-  <si>
     <t>språk</t>
   </si>
   <si>
@@ -443,12 +422,6 @@
     <t>Conversação para viagens</t>
   </si>
   <si>
-    <t>Características da aplicação</t>
-  </si>
-  <si>
-    <t>Apresentação da aplicação</t>
-  </si>
-  <si>
     <t>línguas</t>
   </si>
   <si>
@@ -461,12 +434,6 @@
     <t>Matkasanakirja -sovelluksesta</t>
   </si>
   <si>
-    <t>Sovelluksen ominaisuudet</t>
-  </si>
-  <si>
-    <t>Sovelluksen esikatselu</t>
-  </si>
-  <si>
     <t>lla kielellä</t>
   </si>
   <si>
@@ -482,12 +449,6 @@
     <t>Resekonversation</t>
   </si>
   <si>
-    <t>Applikationens egenskaper</t>
-  </si>
-  <si>
-    <t>Visning av applikationen</t>
-  </si>
-  <si>
     <t>områden</t>
   </si>
   <si>
@@ -521,12 +482,6 @@
     <t>Χρήσιμες ταξιδιωτικές φράσεις</t>
   </si>
   <si>
-    <t>Ιδιότητες εφαρμογής</t>
-  </si>
-  <si>
-    <t>Προβολή εφαρμογών</t>
-  </si>
-  <si>
     <t>γλώσσες</t>
   </si>
   <si>
@@ -581,12 +536,6 @@
     <t>Пътнически разговорник</t>
   </si>
   <si>
-    <t>Свойства на приложението</t>
-  </si>
-  <si>
-    <t>Изглед на приложението</t>
-  </si>
-  <si>
     <t>езика</t>
   </si>
   <si>
@@ -720,12 +669,6 @@
   </si>
   <si>
     <t>この旅行会話の完全版は22カ国言語の旅先で最も使われるフレーズで構成されています。これ以上の旅行ガイドや案内書要らず。</t>
-  </si>
-  <si>
-    <t>旅行会話の特徴</t>
-  </si>
-  <si>
-    <t>アプリケーションのプレビュー</t>
   </si>
   <si>
     <t>言語</t>
@@ -1377,12 +1320,66 @@
   <si>
     <t>これ以上の旅行ガイドや案内書要らず。</t>
   </si>
+  <si>
+    <t>Proprietà</t>
+  </si>
+  <si>
+    <t>Profilo</t>
+  </si>
+  <si>
+    <t>Jellemzők</t>
+  </si>
+  <si>
+    <t>Kinézete</t>
+  </si>
+  <si>
+    <t>Eigendommen</t>
+  </si>
+  <si>
+    <t>Egenskape</t>
+  </si>
+  <si>
+    <t>Prøveforestilling</t>
+  </si>
+  <si>
+    <t>Apresentação</t>
+  </si>
+  <si>
+    <t>Esikatselu</t>
+  </si>
+  <si>
+    <t>Ominaisuudet</t>
+  </si>
+  <si>
+    <t>Egenskaper</t>
+  </si>
+  <si>
+    <t>Visning</t>
+  </si>
+  <si>
+    <t>Ιδιότητες</t>
+  </si>
+  <si>
+    <t>Προβολή</t>
+  </si>
+  <si>
+    <t>Изглед</t>
+  </si>
+  <si>
+    <t>Свойства</t>
+  </si>
+  <si>
+    <t>の特徴</t>
+  </si>
+  <si>
+    <t>プレビュー</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,8 +1439,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1453,6 +1455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -1469,7 +1477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1502,6 +1510,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1787,7 +1797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1940,7 +1950,7 @@
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -1967,54 +1977,54 @@
         <v>94</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="O3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="S3" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -2041,54 +2051,54 @@
         <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="W4" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -2115,128 +2125,128 @@
         <v>96</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="R5" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="S5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="W5" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="X6" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -2263,54 +2273,54 @@
         <v>97</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="N7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="S7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -2337,54 +2347,54 @@
         <v>98</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="N8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="S8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="V8" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
@@ -2408,57 +2418,57 @@
         <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="42.75">
+      <c r="A10" t="s">
         <v>285</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>304</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -2490,10 +2500,10 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>60</v>
@@ -2511,60 +2521,60 @@
         <v>83</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
@@ -2585,63 +2595,63 @@
         <v>84</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>63</v>
@@ -2659,60 +2669,60 @@
         <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="T13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="W13" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="10" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -2736,57 +2746,57 @@
         <v>92</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="N14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="S14" s="5" t="s">
+      <c r="R14" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="V14" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="U14" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="W14" s="5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>232</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
@@ -2810,274 +2820,274 @@
         <v>93</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L15" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="O15" s="2" t="s">
+      <c r="N15" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="S15" s="5" t="s">
+      <c r="R15" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="U15" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="V15" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="U15" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="W15" s="5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="U16" t="s">
+        <v>334</v>
+      </c>
+      <c r="V16" t="s">
         <v>335</v>
       </c>
-      <c r="D16" t="s">
+      <c r="W16" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="X16" t="s">
         <v>337</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="U16" t="s">
-        <v>353</v>
-      </c>
-      <c r="V16" t="s">
-        <v>354</v>
-      </c>
-      <c r="W16" t="s">
-        <v>355</v>
-      </c>
-      <c r="X16" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="T17" t="s">
+        <v>355</v>
+      </c>
+      <c r="U17" t="s">
+        <v>356</v>
+      </c>
+      <c r="V17" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="W17" t="s">
         <v>358</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="X17" t="s">
         <v>359</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="T17" t="s">
-        <v>374</v>
-      </c>
-      <c r="U17" t="s">
-        <v>375</v>
-      </c>
-      <c r="V17" t="s">
-        <v>376</v>
-      </c>
-      <c r="W17" t="s">
-        <v>377</v>
-      </c>
-      <c r="X17" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="13" customFormat="1">
       <c r="A18" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="V18" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="W18" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="X18" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>
